--- a/Study Results.xlsx
+++ b/Study Results.xlsx
@@ -4,23 +4,141 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28695" windowHeight="15090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
-  </pivotCaches>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>- all -</t>
+  </si>
+  <si>
+    <t>Stamps Collected Weekly</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Average - Age</t>
+  </si>
+  <si>
+    <t>Average - Gender</t>
+  </si>
+  <si>
+    <t>Average - Stamps Collected Weekly</t>
+  </si>
+  <si>
+    <t>Average - I am more likely to complete a stampcard once I start collecting one</t>
+  </si>
+  <si>
+    <t>Average - I occasionally forget/misplace my loyalty cards</t>
+  </si>
+  <si>
+    <t>Average - I find this `tapping method' of collecting loyalty points useful</t>
+  </si>
+  <si>
+    <t>Average - I find the application easy to use</t>
+  </si>
+  <si>
+    <t>Average - I prefer using the application over paper-based loyalty schemes</t>
+  </si>
+  <si>
+    <t>Average - how likely would you use this system on a regular basis</t>
+  </si>
+  <si>
+    <t>Average - how likely are you to recommend this system to friends</t>
+  </si>
+  <si>
+    <t>Average - badges/acheivments would encourage you to use the application</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Average Response</t>
+  </si>
+  <si>
+    <t>Q1 – Age</t>
+  </si>
+  <si>
+    <t>Q2 - Gender</t>
+  </si>
+  <si>
+    <t>50% Male 50% Female</t>
+  </si>
+  <si>
+    <t>Q3.1 - Stamps Collected Weekly</t>
+  </si>
+  <si>
+    <t>Q3.2 - I am more likely to complete a stampcard once I start collecting one</t>
+  </si>
+  <si>
+    <t>Q3.3 - I occasionally forget/misplace my loyalty cards</t>
+  </si>
+  <si>
+    <t>Q4.1 - I find this `tapping method' of collecting loyalty points useful</t>
+  </si>
+  <si>
+    <t>Q4.2 - I find the application easy to use</t>
+  </si>
+  <si>
+    <t>Q5.1 - I prefer using the application over paper-based loyalty schemes</t>
+  </si>
+  <si>
+    <t>Q5.2 - how likely would you use this system on a regular basis</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>StDev - Gender</t>
+  </si>
+  <si>
+    <t>StDev - Age</t>
+  </si>
+  <si>
+    <t>StDev - Stamps Collected Weekly</t>
+  </si>
+  <si>
+    <t>StDev - I am more likely to complete a stampcard once I start collecting one</t>
+  </si>
+  <si>
+    <t>StDev - I occasionally forget/misplace my loyalty cards</t>
+  </si>
+  <si>
+    <t>StDev - I find the application easy to use</t>
+  </si>
+  <si>
+    <t>StDev - I find this `tapping method' of collecting loyalty points useful</t>
+  </si>
+  <si>
+    <t>StDev - I prefer using the application over paper-based loyalty schemes</t>
+  </si>
+  <si>
+    <t>StDev - how likely would you use this system on a regular basis</t>
+  </si>
+  <si>
+    <t>StDev - how likely are you to recommend this system to friends</t>
+  </si>
+  <si>
+    <t>StDev - badges/acheivments would encourage you to use the application</t>
+  </si>
+  <si>
+    <t>StDev - System Q2</t>
+  </si>
   <si>
     <t>Age</t>
   </si>
@@ -28,28 +146,28 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Stamps Collected Weekly</t>
-  </si>
-  <si>
-    <t>Q3.1</t>
-  </si>
-  <si>
-    <t>Q3.2</t>
-  </si>
-  <si>
-    <t>Q4.1</t>
-  </si>
-  <si>
-    <t>Q4.2</t>
-  </si>
-  <si>
-    <t>Q4.3</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>System Q1</t>
+    <t>I am more likely to complete a stampcard once I start collecting one</t>
+  </si>
+  <si>
+    <t>I occasionally forget/misplace my loyalty cards</t>
+  </si>
+  <si>
+    <t>I find this `tapping method' of collecting loyalty points useful</t>
+  </si>
+  <si>
+    <t>I find the application easy to use</t>
+  </si>
+  <si>
+    <t>I prefer using the application over paper-based loyalty schemes</t>
+  </si>
+  <si>
+    <t>how likely would you use this system on a regular basis</t>
+  </si>
+  <si>
+    <t>how likely are you to recommend this system to friends</t>
+  </si>
+  <si>
+    <t>badges/acheivments would encourage you to use the application</t>
   </si>
   <si>
     <t>System Q2</t>
@@ -58,66 +176,36 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Q5.1</t>
-  </si>
-  <si>
-    <t>Q5.2</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
     <t>5+</t>
   </si>
   <si>
-    <t>(All)</t>
+    <t/>
   </si>
   <si>
     <t>Values</t>
   </si>
   <si>
-    <t>Average of Q3.2</t>
-  </si>
-  <si>
-    <t>Average of Q3.1</t>
-  </si>
-  <si>
-    <t>Average of Q4.1</t>
-  </si>
-  <si>
-    <t>Average of Q4.2</t>
-  </si>
-  <si>
-    <t>Average of Q4.3</t>
-  </si>
-  <si>
-    <t>Average of Q5.1</t>
-  </si>
-  <si>
-    <t>Average of Q5.2</t>
-  </si>
-  <si>
-    <t>Average of System Q1</t>
-  </si>
-  <si>
-    <t>Average of System Q2</t>
-  </si>
-  <si>
     <t>I find this `tapping method' of collecting loyalty points useful</t>
   </si>
   <si>
+    <t>I find the application easy to use</t>
+  </si>
+  <si>
+    <t>I prefer using the application over paper-based loyalty schemes</t>
+  </si>
+  <si>
     <t>how likely would you use this system on a regular basis</t>
   </si>
   <si>
@@ -130,40 +218,61 @@
     <t>I enjoyed collecting/engaging with badges</t>
   </si>
   <si>
-    <t>I find the application easy to use</t>
-  </si>
-  <si>
-    <t>I prefer using the application over paper-based loyalty schemes</t>
-  </si>
-  <si>
     <t>System A</t>
   </si>
   <si>
     <t>System B</t>
   </si>
   <si>
-    <t>badges complicated things (made harder to use)</t>
+    <t>What rewards can the customer claim using the loyalty scheme?</t>
+  </si>
+  <si>
+    <t>Does your business have a loyalty scheme?</t>
+  </si>
+  <si>
+    <t>What type of loyalty scheme do you run?</t>
+  </si>
+  <si>
+    <t>Responses</t>
+  </si>
+  <si>
+    <t>What percentage of customers do you feel take part in the scheme?</t>
+  </si>
+  <si>
+    <t>Yes (3/3)</t>
+  </si>
+  <si>
+    <t>Free Item (2/3) | Upgrade (2/3)</t>
+  </si>
+  <si>
+    <t>Stamp Card (2/3) | Reward Card[Barcode] (1/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%-59% (1/3)|  60%-79% (2/3) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -171,6 +280,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,12 +299,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDCE6F2"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -195,27 +312,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDCE6F2"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -242,6 +602,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$2:$H$2</c:f>
@@ -275,22 +643,22 @@
             <c:numRef>
               <c:f>Sheet2!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>3.6666666666666701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>3.6666666666666701</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -313,6 +681,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C0504D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$2:$H$2</c:f>
@@ -346,67 +722,144 @@
             <c:numRef>
               <c:f>Sheet2!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.6666666666666701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.6666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.6666666666666696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78784384"/>
-        <c:axId val="78785920"/>
+        <c:axId val="50519040"/>
+        <c:axId val="50553600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78784384"/>
+        <c:axId val="50519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78785920"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50553600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78785920"/>
+        <c:axId val="50553600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78784384"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50519040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -417,18 +870,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:colOff>586800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -448,352 +901,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Henrik" refreshedDate="42112.009886458334" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="6">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="13">
-    <cacheField name="System" numFmtId="0">
-      <sharedItems count="2">
-        <s v="A"/>
-        <s v="B"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="22"/>
-    </cacheField>
-    <cacheField name="Gender" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Stamps Collected Weekly" numFmtId="49">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="4">
-        <s v="1-2"/>
-        <n v="0"/>
-        <s v="3-4"/>
-        <s v="5+"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Q3.1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Q3.2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Q4.1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Q4.2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Q4.3" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Q5.1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Q5.2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
-    </cacheField>
-    <cacheField name="System Q1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
-    </cacheField>
-    <cacheField name="System Q2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
-  <r>
-    <x v="0"/>
-    <n v="22"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="5"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="21"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="22"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="21"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="5"/>
-    <m/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="22"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="5"/>
-    <m/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="22"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="4"/>
-    <m/>
-    <n v="4"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" item="1" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="9">
-    <dataField name="Average of Q3.1" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q3.2" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q4.1" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q4.2" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q4.3" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q5.1" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q5.2" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of System Q1" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of System Q2" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:I6" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" item="0" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="9">
-    <dataField name="Average of Q3.1" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q3.2" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q4.1" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q4.2" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q4.3" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q5.1" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Q5.2" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of System Q1" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of System Q2" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="System"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Gender"/>
-    <tableColumn id="4" name="Stamps Collected Weekly" dataDxfId="0"/>
-    <tableColumn id="5" name="Q3.1"/>
-    <tableColumn id="6" name="Q3.2"/>
-    <tableColumn id="7" name="Q4.1"/>
-    <tableColumn id="8" name="Q4.2"/>
-    <tableColumn id="9" name="Q4.3"/>
-    <tableColumn id="10" name="Q5.1"/>
-    <tableColumn id="11" name="Q5.2"/>
-    <tableColumn id="12" name="System Q1"/>
-    <tableColumn id="13" name="System Q2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,259 +1188,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="C19:I19"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B36" sqref="A36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625"/>
+    <col min="2" max="2" width="19.140625"/>
+    <col min="3" max="7" width="15.140625"/>
+    <col min="8" max="9" width="20.5703125"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>21.6666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4.3333333333333304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.8333333333333299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="B12" s="10">
+        <v>4.3333333333333304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4.1666666666666696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>21.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="17">
+        <v>4.3333333333333304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="17">
+        <v>3.8333333333333299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="17">
+        <v>4.1666666666666696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B32" s="10">
+        <v>0.57735026918965904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>4.666666666666667</v>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1.5275252316519501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.57735026918962495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.57735026918962495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1.1547005383792499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.57735026918962795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.57735026918962795</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125"/>
+    <col min="2" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="9.7109375"/>
+    <col min="5" max="5" width="10.28515625"/>
+    <col min="6" max="11" width="8.5703125"/>
+    <col min="12" max="13" width="12.42578125"/>
+    <col min="14" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="150">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="E1" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1362,15 +1612,15 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+        <v>52</v>
+      </c>
+      <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3">
@@ -1400,16 +1650,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1424,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1438,16 +1688,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1459,10 +1709,10 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1476,16 +1726,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1500,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1514,16 +1764,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1535,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -1550,148 +1800,181 @@
         <v>4</v>
       </c>
     </row>
+    <row r="58" spans="9:9">
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="1" sqref="A36:B37 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="B3" s="23">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="C3" s="23">
+        <v>4</v>
+      </c>
+      <c r="D3" s="23">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="G3" s="23">
+        <v>4</v>
+      </c>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="24">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="D4" s="24">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="F4" s="24">
+        <v>4.6666666666666696</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
+        <v>4.6666666666666696</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>